--- a/data/trans_bre/PCS12_SP_R3-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/PCS12_SP_R3-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>11.66260811843532</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7.423878343186724</v>
+        <v>7.423878343186718</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.438507600751354</v>
@@ -649,7 +649,7 @@
         <v>0.6067744035121717</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.2163542024344212</v>
+        <v>0.2163542024344211</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>7.637097164789353</v>
+        <v>7.018932538012779</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>10.72727379370062</v>
+        <v>10.42241140189483</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7.812097862200956</v>
+        <v>8.21568101353459</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.3800127826588</v>
+        <v>1.713510310526891</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2421877545478552</v>
+        <v>0.2313969897811919</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.515003599479296</v>
+        <v>0.4997683913762309</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3615722086194026</v>
+        <v>0.3937616656193407</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.0351707684392347</v>
+        <v>0.04721763125353753</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>16.7177482206181</v>
+        <v>17.50629323124695</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>18.09082123697476</v>
+        <v>17.83183305078337</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>15.18285112480099</v>
+        <v>15.65418035054884</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12.80224200110965</v>
+        <v>12.81868698120715</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.683213243199682</v>
+        <v>0.709949766547282</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.081273261202722</v>
+        <v>1.073632530456649</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8528793009004033</v>
+        <v>0.8933428535676601</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.4152684394683179</v>
+        <v>0.4239130247719565</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>5.122154215018047</v>
+        <v>5.163763511289107</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>9.087528386196475</v>
+        <v>9.25407633100243</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5.201665888430544</v>
+        <v>5.463781366786725</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6.084490205862391</v>
+        <v>6.207094762002704</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2867985564166249</v>
+        <v>0.2936999252094419</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4400732675592665</v>
+        <v>0.4726548000319557</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2888170789996722</v>
+        <v>0.3101640097923226</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.2289552640629594</v>
+        <v>0.2401505191395427</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>11.84634422693003</v>
+        <v>11.99937821572201</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>16.79109801976392</v>
+        <v>16.5225409432523</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>12.890325446732</v>
+        <v>12.87790837774496</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>13.48911262749115</v>
+        <v>13.39825056583358</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.8174641747077173</v>
+        <v>0.8388373415145612</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.056899631621731</v>
+        <v>1.042671457589169</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9170122701041584</v>
+        <v>0.9353949218652545</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.6237034708312658</v>
+        <v>0.6268684395348635</v>
       </c>
     </row>
     <row r="10">
@@ -849,7 +849,7 @@
         <v>0.7085128306138622</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.5955423211710315</v>
+        <v>0.5955423211710308</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>7.219323745100739</v>
+        <v>7.115661210051201</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3.017053631515697</v>
+        <v>2.711378397152058</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5.60924227033819</v>
+        <v>6.130579406587866</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>6.975257584870895</v>
+        <v>7.077571996154424</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.5429635916985571</v>
+        <v>0.5432386571856739</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1445212187862734</v>
+        <v>0.1361982462570479</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3451468733413147</v>
+        <v>0.3928223551854125</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.3666205961531953</v>
+        <v>0.3680691335186697</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>13.7257383132756</v>
+        <v>13.4101568939545</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>11.28375059663753</v>
+        <v>11.12560631301634</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>13.65492931192326</v>
+        <v>13.92567869974414</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>13.36243060163236</v>
+        <v>13.36671238503375</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.315419119954534</v>
+        <v>1.29368935203091</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6895361427937442</v>
+        <v>0.693392649512554</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.131545253789225</v>
+        <v>1.160331935901258</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.8607450476340867</v>
+        <v>0.8515251461060132</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>3.227606753928805</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5.083233807982001</v>
+        <v>5.083233807982005</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7449068810293565</v>
@@ -949,7 +949,7 @@
         <v>0.1913366859243139</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.3075811640964818</v>
+        <v>0.307581164096482</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.903666473766932</v>
+        <v>2.415774096233433</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.468727320728371</v>
+        <v>2.456318320108185</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-2.375345322288398</v>
+        <v>-1.632721829101527</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.890100829748515</v>
+        <v>1.805288322685668</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1937963650459832</v>
+        <v>0.1961011332942201</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0756432541208685</v>
+        <v>0.1222081948463134</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1241270028646815</v>
+        <v>-0.09080170985457033</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.09368760978922991</v>
+        <v>0.09658346571900085</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>11.77018447164801</v>
+        <v>11.95657060152299</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>12.41589492453702</v>
+        <v>13.38680909771201</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>8.494939004579843</v>
+        <v>8.419537900748583</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>8.564064880339073</v>
+        <v>8.259887890021325</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.680379010679164</v>
+        <v>1.68874686782052</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.9131352118659063</v>
+        <v>0.971708187069262</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5944674978119552</v>
+        <v>0.5810163083822903</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.5894152746877052</v>
+        <v>0.5464696685621337</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>9.178275321234739</v>
+        <v>9.269118485753838</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>9.135835061557616</v>
+        <v>9.076977483558222</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7.134098738105791</v>
+        <v>7.460251171081772</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7.171497819326687</v>
+        <v>7.323313987676072</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.5560062504296283</v>
+        <v>0.5624819501155515</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.482234057881789</v>
+        <v>0.4850053212830421</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4066037683695375</v>
+        <v>0.4252509220042925</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.3191240952979578</v>
+        <v>0.3209095137678011</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>13.16178002981197</v>
+        <v>13.13037377272009</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>13.1764892386207</v>
+        <v>13.31168744140243</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11.26478096220892</v>
+        <v>11.49060196102069</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10.90889119973174</v>
+        <v>11.13627314958649</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.8904856021979876</v>
+        <v>0.894080267203876</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7879087301514048</v>
+        <v>0.7908199965956733</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7169249488344636</v>
+        <v>0.7297671821660245</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.5405187239578031</v>
+        <v>0.5475687198486145</v>
       </c>
     </row>
     <row r="19">
